--- a/Service.xlsx
+++ b/Service.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\Negative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B179259-3D39-47BD-9712-77BCE259E962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE7300-6D1E-4C4E-86CB-794DD754D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ServiceNameEBP" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -104,6 +105,12 @@
   </si>
   <si>
     <t>Concerning Practice</t>
+  </si>
+  <si>
+    <t>testT4116_Negative</t>
+  </si>
+  <si>
+    <t>NG1</t>
   </si>
 </sst>
 </file>
@@ -151,11 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,14 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E6D683-EC7C-4382-89C1-332EAC99BFEA}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -539,6 +548,52 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -547,10 +602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0C75D8-3519-456E-8C53-5A4A14CE833C}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,6 +679,58 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -631,15 +738,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDDB3C3-1412-4485-BB20-8CFCFD4246EE}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -713,6 +820,64 @@
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Service.xlsx
+++ b/Service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\Negative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE7300-6D1E-4C4E-86CB-794DD754D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA65C2-D094-4FD7-AD3E-56EEA2F1EA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="ServiceNameEBP" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -111,6 +110,9 @@
   </si>
   <si>
     <t>NG1</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -480,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E6D683-EC7C-4382-89C1-332EAC99BFEA}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,11 +589,17 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +613,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,11 +732,17 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -740,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDDB3C3-1412-4485-BB20-8CFCFD4246EE}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,6 +881,9 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
@@ -878,6 +895,9 @@
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -886,6 +906,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1102,26 +1141,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1138,22 +1176,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Service.xlsx
+++ b/Service.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\Negative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA65C2-D094-4FD7-AD3E-56EEA2F1EA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957BA64-6993-4133-9BA5-FE6FB5A53BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E6D683-EC7C-4382-89C1-332EAC99BFEA}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,19 +552,19 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -573,32 +573,6 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -610,10 +584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0C75D8-3519-456E-8C53-5A4A14CE833C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,8 +668,8 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -704,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -713,35 +687,6 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -752,10 +697,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDDB3C3-1412-4485-BB20-8CFCFD4246EE}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,19 +783,19 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -865,38 +810,6 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -906,25 +819,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1141,25 +1035,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1176,4 +1071,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>